--- a/default/0_test_structure/concept.xlsx
+++ b/default/0_test_structure/concept.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repos\pyesm\default\0_test_model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repos\pyesm\default\0_test_structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378E1130-EBE0-4D3A-A930-1C61432B463E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDF41EF-3CE3-450B-8EAA-9A64947ADFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24440" yWindow="350" windowWidth="23650" windowHeight="17990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31550" yWindow="2750" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,61 +25,118 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>set name</t>
-  </si>
-  <si>
-    <t>set symbol</t>
-  </si>
-  <si>
-    <t>scenarios</t>
-  </si>
-  <si>
-    <t>sensitivity</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>time</t>
   </si>
   <si>
-    <t>technologies</t>
+    <t>techs</t>
   </si>
   <si>
     <t>flows</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>sets_all</t>
-  </si>
-  <si>
-    <t>sets_</t>
+    <t>power by gas</t>
+  </si>
+  <si>
+    <t>power by pv</t>
+  </si>
+  <si>
+    <t>operative cost</t>
+  </si>
+  <si>
+    <t>f.1</t>
+  </si>
+  <si>
+    <t>f.2</t>
+  </si>
+  <si>
+    <t>f.3</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>t.1</t>
+  </si>
+  <si>
+    <t>t.2</t>
+  </si>
+  <si>
+    <t>t.3</t>
+  </si>
+  <si>
+    <t>gas plant</t>
+  </si>
+  <si>
+    <t>pv plant</t>
+  </si>
+  <si>
+    <t>household</t>
+  </si>
+  <si>
+    <t>y.1</t>
+  </si>
+  <si>
+    <t>y.2</t>
+  </si>
+  <si>
+    <t>y.3</t>
+  </si>
+  <si>
+    <t>y.4</t>
+  </si>
+  <si>
+    <t>y.5</t>
+  </si>
+  <si>
+    <t>year 1</t>
+  </si>
+  <si>
+    <t>year 2</t>
+  </si>
+  <si>
+    <t>year 3</t>
+  </si>
+  <si>
+    <t>year 4</t>
+  </si>
+  <si>
+    <t>year 5</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>agg</t>
+  </si>
+  <si>
+    <t>t.s</t>
+  </si>
+  <si>
+    <t>f.p</t>
+  </si>
+  <si>
+    <t>comp</t>
+  </si>
+  <si>
+    <t>f.1-2</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>t.d</t>
+  </si>
+  <si>
+    <t>f.c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,13 +144,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -108,8 +189,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -125,6 +209,1474 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>193675</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="538609" cy="235514"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE554C22-4258-B78A-A2FD-4E13A8109F07}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6213475" y="3276600"/>
+              <a:ext cx="538609" cy="235514"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐕</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐲𝐭</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐕</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE554C22-4258-B78A-A2FD-4E13A8109F07}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6213475" y="3276600"/>
+              <a:ext cx="538609" cy="235514"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐕_𝐲𝐭 (𝐕)</a:t>
+              </a:r>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="517770" cy="219163"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1B085CA-8596-3930-F0AE-8D1AC493BD4F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5324475" y="996950"/>
+              <a:ext cx="517770" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐕</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐭𝐟</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐕</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1B085CA-8596-3930-F0AE-8D1AC493BD4F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5324475" y="996950"/>
+              <a:ext cx="517770" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐕_𝐭𝐟 (𝐕)</a:t>
+              </a:r>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>198158</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="522644" cy="219163"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A4D21B6-803A-7B53-E2A8-D148A24942E8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4486276" y="1763432"/>
+              <a:ext cx="522644" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐕</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐟𝐟</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐕</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A4D21B6-803A-7B53-E2A8-D148A24942E8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4486276" y="1763432"/>
+              <a:ext cx="522644" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐕_𝐟𝐟 (𝐕)</a:t>
+              </a:r>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>382308</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="640303" cy="219163"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEA3B78C-2173-6B6C-DDDE-B9F758EADB83}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10400367" y="2317376"/>
+              <a:ext cx="640303" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐢</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐭𝟏</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐜𝐬𝐭</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEA3B78C-2173-6B6C-DDDE-B9F758EADB83}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10400367" y="2317376"/>
+              <a:ext cx="640303" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐢_𝐭𝟏 (𝐜𝐬𝐭)</a:t>
+              </a:r>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>339725</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="547073" cy="219163"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3AA3BE3-FCC3-B396-EFE0-0537FA505192}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7673975" y="3295650"/>
+              <a:ext cx="547073" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐓</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐜𝐬𝐭</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3AA3BE3-FCC3-B396-EFE0-0537FA505192}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7673975" y="3295650"/>
+              <a:ext cx="547073" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐓(𝐜𝐬𝐭)</a:t>
+              </a:r>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="543803" cy="219163"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A087BA22-2A24-A2F8-829A-A45A12B0118D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5165725" y="2279650"/>
+              <a:ext cx="543803" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐗</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐭𝐟</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐗</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A087BA22-2A24-A2F8-829A-A45A12B0118D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5165725" y="2279650"/>
+              <a:ext cx="543803" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐗_𝐭𝐟 (𝐗)</a:t>
+              </a:r>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="550920" cy="235514"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A6E6584-D4DE-1893-26AF-65C8317F8A7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6200775" y="3289300"/>
+              <a:ext cx="550920" cy="235514"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐗</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐲𝐭</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐗</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A6E6584-D4DE-1893-26AF-65C8317F8A7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6200775" y="3289300"/>
+              <a:ext cx="550920" cy="235514"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐗_𝐲𝐭 (𝐗)</a:t>
+              </a:r>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>198158</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>179667</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="535403" cy="219163"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DD1A284-66E8-44D6-98CE-788F55ACD412}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6249334" y="1673785"/>
+              <a:ext cx="535403" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐗</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐟𝐟</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐗</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DD1A284-66E8-44D6-98CE-788F55ACD412}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6249334" y="1673785"/>
+              <a:ext cx="535403" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐗_𝐟𝐟 (𝐗)</a:t>
+              </a:r>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>56217</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>164726</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="754566" cy="219163"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4F212A4-7530-4470-ABFA-DC6ED6DC7F97}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7429688" y="1658844"/>
+              <a:ext cx="754566" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐈</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐫𝐜𝐨𝐭</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐜𝐬𝐭</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4F212A4-7530-4470-ABFA-DC6ED6DC7F97}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7429688" y="1658844"/>
+              <a:ext cx="754566" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐈_𝐫𝐜𝐨𝐭 (𝐜𝐬𝐭)</a:t>
+              </a:r>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -390,83 +1942,287 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" customWidth="1"/>
+    <col min="4" max="4" width="15.90625" customWidth="1"/>
+    <col min="5" max="6" width="6.36328125" customWidth="1"/>
+    <col min="7" max="30" width="6.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="X1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
         <v>7</v>
       </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" t="s">
+        <v>7</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
         <v>10</v>
       </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="V13" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
         <v>11</v>
       </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="V14" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/default/0_test_structure/concept.xlsx
+++ b/default/0_test_structure/concept.xlsx
@@ -8,24 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repos\pyesm\default\0_test_structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDF41EF-3CE3-450B-8EAA-9A64947ADFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E651706-E01B-4EC8-A8E3-DE369F8C326F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31550" yWindow="2750" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="rcot" sheetId="1" r:id="rId1"/>
+    <sheet name="no_rcot" sheetId="2" r:id="rId2"/>
+    <sheet name="no_rcot (2)" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="36">
   <si>
     <t>time</t>
   </si>
@@ -131,6 +144,9 @@
   <si>
     <t>f.c</t>
   </si>
+  <si>
+    <t>category</t>
+  </si>
 </sst>
 </file>
 
@@ -189,11 +205,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,8 +407,8 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="517770" cy="219163"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -485,7 +507,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -550,8 +572,8 @@
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="522644" cy="219163"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -650,7 +672,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -715,8 +737,8 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="640303" cy="219163"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -815,7 +837,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -1025,8 +1047,8 @@
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="543803" cy="219163"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -1125,7 +1147,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -1354,8 +1376,8 @@
       <xdr:rowOff>179667</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="535403" cy="219163"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -1454,7 +1476,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -1519,8 +1541,8 @@
       <xdr:rowOff>164726</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="754566" cy="219163"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -1619,7 +1641,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -1667,6 +1689,4273 @@
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>𝐈_𝐫𝐜𝐨𝐭 (𝐜𝐬𝐭)</a:t>
+              </a:r>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>193675</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>116157</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="538161" cy="235514"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5E99129-7605-4F1C-9D77-D08FF915DBF0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8371371" y="2120548"/>
+              <a:ext cx="538161" cy="235514"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐕</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐲𝐭</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐕</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5E99129-7605-4F1C-9D77-D08FF915DBF0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8371371" y="2120548"/>
+              <a:ext cx="538161" cy="235514"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐕_𝐲𝐭 (𝐕)</a:t>
+              </a:r>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>205629</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142318</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="522644" cy="219163"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AB29B24-52D9-4538-AFB7-295E8DE95485}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4045511" y="702612"/>
+              <a:ext cx="522644" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐕</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐟𝐟</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐕</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AB29B24-52D9-4538-AFB7-295E8DE95485}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4045511" y="702612"/>
+              <a:ext cx="522644" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐕_𝐟𝐟 (𝐕)</a:t>
+              </a:r>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>339725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>96555</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="705771" cy="235514"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2FF3AA5-D56F-4A8A-A99C-CCA1C6D7DDC0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11570942" y="2100946"/>
+              <a:ext cx="705771" cy="235514"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐓</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐲𝐲</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐜𝐬𝐭</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2FF3AA5-D56F-4A8A-A99C-CCA1C6D7DDC0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11570942" y="2100946"/>
+              <a:ext cx="705771" cy="235514"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐓_𝐲𝐲 (𝐜𝐬𝐭)</a:t>
+              </a:r>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>99316</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1402692" cy="235514"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B95C1F5-8243-47FB-BA62-14AE8E63C439}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9345405" y="2103707"/>
+              <a:ext cx="1402692" cy="235514"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐗</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐲𝐭</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐗</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐓</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐲𝐲</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∙</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐕</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐲𝐭</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B95C1F5-8243-47FB-BA62-14AE8E63C439}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9345405" y="2103707"/>
+              <a:ext cx="1402692" cy="235514"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐗_𝐲𝐭 (𝐗)=𝐓_𝐲𝐲</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∙𝐕_𝐲𝐭</a:t>
+              </a:r>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>220245</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>115034</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="597984" cy="235064"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C96EDBFA-2FED-F502-B6DB-42A5E879B1FC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4035767" y="1390556"/>
+              <a:ext cx="597984" cy="235064"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐕</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐭𝐟𝐩</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐕</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C96EDBFA-2FED-F502-B6DB-42A5E879B1FC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4035767" y="1390556"/>
+              <a:ext cx="597984" cy="235064"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐕_𝐭𝐟𝐩 (𝐕)</a:t>
+              </a:r>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>92920</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>149463</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1356269" cy="219163"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="TextBox 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B7E7EE5-59E6-4411-BEE7-D71A7A1F41F9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4780877" y="4158246"/>
+              <a:ext cx="1356269" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐗</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟏𝐟</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐗</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐢</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟏𝐟</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∙</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐕</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐟𝐟</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="TextBox 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B7E7EE5-59E6-4411-BEE7-D71A7A1F41F9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4780877" y="4158246"/>
+              <a:ext cx="1356269" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐗_𝟏𝐟 (𝐗)=𝐢_𝟏𝐟</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∙</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐕_𝐟𝐟</a:t>
+              </a:r>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>426758</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142091</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1136978" cy="235064"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="TextBox 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6085226-5D64-4AB1-969B-844549A766D9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5114715" y="1417613"/>
+              <a:ext cx="1136978" cy="235064"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐗</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐭𝐟𝐩</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐗</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐕</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐭𝐟𝐩</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="TextBox 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6085226-5D64-4AB1-969B-844549A766D9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5114715" y="1417613"/>
+              <a:ext cx="1136978" cy="235064"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐗_𝐭𝐟𝐩 (𝐗)=𝐕_𝐭𝐟𝐩</a:t>
+              </a:r>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>425637</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>135968</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="583942" cy="219163"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="TextBox 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E123E70-0EF8-4DB0-B0EC-442051B4DCB1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6422246" y="1411490"/>
+              <a:ext cx="583942" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐕</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐭𝐟𝐜</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐕</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="TextBox 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E123E70-0EF8-4DB0-B0EC-442051B4DCB1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6422246" y="1411490"/>
+              <a:ext cx="583942" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐕_𝐭𝐟𝐜 (𝐕)</a:t>
+              </a:r>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>263525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142317</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1103251" cy="219163"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="TextBox 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4264CC64-843F-4155-9353-4585434F6969}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7132568" y="1417839"/>
+              <a:ext cx="1103251" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐗</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐭𝐟𝐜</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐗</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐕</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐭𝐟𝐜</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="TextBox 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4264CC64-843F-4155-9353-4585434F6969}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7132568" y="1417839"/>
+              <a:ext cx="1103251" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐗_𝐭𝐟𝐜 (𝐗)=𝐕_𝐭𝐟𝐜</a:t>
+              </a:r>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>149412</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>113555</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="629211" cy="219163"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="TextBox 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6F83882-1986-4127-2E87-514893232947}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3964934" y="3393468"/>
+              <a:ext cx="629211" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐢</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟏𝐟</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐜𝐬𝐭</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="TextBox 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6F83882-1986-4127-2E87-514893232947}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3964934" y="3393468"/>
+              <a:ext cx="629211" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐢_𝟏𝐟 (𝐜𝐬𝐭)</a:t>
+              </a:r>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76470</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="538161" cy="235514"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09050753-473F-456C-8051-05A0589F6A75}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10615613" y="2818876"/>
+              <a:ext cx="538161" cy="235514"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐕</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐲𝐭</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐕</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09050753-473F-456C-8051-05A0589F6A75}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10615613" y="2818876"/>
+              <a:ext cx="538161" cy="235514"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐕_𝐲𝐭 (𝐕)</a:t>
+              </a:r>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>118317</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>70880</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="522644" cy="219163"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77BDA2E2-31DF-4F90-B7FD-2980FB2BF6C7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9619505" y="4634943"/>
+              <a:ext cx="522644" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐕</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐟𝐟</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐕</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77BDA2E2-31DF-4F90-B7FD-2980FB2BF6C7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9619505" y="4634943"/>
+              <a:ext cx="522644" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐕_𝐟𝐟 (𝐕)</a:t>
+              </a:r>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>56868</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="705771" cy="235514"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A863EEC-5395-4EAA-A548-8B574FE0941A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13817600" y="2799274"/>
+              <a:ext cx="705771" cy="235514"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐓</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐲𝐲</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐜𝐬𝐭</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A863EEC-5395-4EAA-A548-8B574FE0941A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13817600" y="2799274"/>
+              <a:ext cx="705771" cy="235514"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐓_𝐲𝐲 (𝐜𝐬𝐭)</a:t>
+              </a:r>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>59629</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1402692" cy="235514"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7595DA86-031B-4DBF-9B3D-F928587C2D6B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11590338" y="2802035"/>
+              <a:ext cx="1402692" cy="235514"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐗</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐲𝐭</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐗</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐓</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐲𝐲</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∙</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐕</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐲𝐭</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7595DA86-031B-4DBF-9B3D-F928587C2D6B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11590338" y="2802035"/>
+              <a:ext cx="1402692" cy="235514"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐗_𝐲𝐭 (𝐗)=𝐓_𝐲𝐲</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∙𝐕_𝐲𝐭</a:t>
+              </a:r>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>204371</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>119004</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="517769" cy="219163"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E82AE6ED-66F1-4347-8A27-43E1896269DD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4030246" y="1583473"/>
+              <a:ext cx="517769" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐕</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐭𝐟</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐕</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E82AE6ED-66F1-4347-8A27-43E1896269DD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4030246" y="1583473"/>
+              <a:ext cx="517769" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐕_𝐭𝐟 (𝐕)</a:t>
+              </a:r>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>208013</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>157400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1356269" cy="219163"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67698377-46E9-4238-8304-99EFFBD3C426}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3152826" y="4725431"/>
+              <a:ext cx="1356269" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐗</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟏𝐟</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐗</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐢</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟏𝐟</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∙</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐕</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐟𝐟</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67698377-46E9-4238-8304-99EFFBD3C426}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3152826" y="4725431"/>
+              <a:ext cx="1356269" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐗_𝟏𝐟 (𝐗)=𝐢_𝟏𝐟</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∙</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐕_𝐟𝐟</a:t>
+              </a:r>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>383101</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>130185</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1136978" cy="235064"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14EBBFBE-9341-403B-AD36-1303C20A723D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7264914" y="1594654"/>
+              <a:ext cx="1136978" cy="235064"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐗</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐭𝐟𝐩</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐗</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐕</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐭𝐟𝐩</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14EBBFBE-9341-403B-AD36-1303C20A723D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7264914" y="1594654"/>
+              <a:ext cx="1136978" cy="235064"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐗_𝐭𝐟𝐩 (𝐗)=𝐕_𝐭𝐟𝐩</a:t>
+              </a:r>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>425637</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>135968</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="583942" cy="219163"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3195FE02-E14C-4A84-9091-5FB2B2329E4B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6439087" y="1425018"/>
+              <a:ext cx="583942" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐕</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐭𝐟𝐜</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐕</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3195FE02-E14C-4A84-9091-5FB2B2329E4B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6439087" y="1425018"/>
+              <a:ext cx="583942" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐕_𝐭𝐟𝐜 (𝐕)</a:t>
+              </a:r>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>263525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142317</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1103251" cy="219163"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82110C40-3C69-4B04-BFC6-30CFAA444C7A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7153275" y="1431367"/>
+              <a:ext cx="1103251" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐗</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐭𝐟𝐜</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐗</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐕</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐭𝐟𝐜</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82110C40-3C69-4B04-BFC6-30CFAA444C7A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7153275" y="1431367"/>
+              <a:ext cx="1103251" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐗_𝐭𝐟𝐜 (𝐗)=𝐕_𝐭𝐟𝐜</a:t>
+              </a:r>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>149412</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>113555</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="629211" cy="219163"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEB1E02D-63F4-4387-B8DB-568EDCE06DC8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3972112" y="3428255"/>
+              <a:ext cx="629211" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐢</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟏𝐟</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐜𝐬𝐭</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEB1E02D-63F4-4387-B8DB-568EDCE06DC8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3972112" y="3428255"/>
+              <a:ext cx="629211" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐢_𝟏𝐟 (𝐜𝐬𝐭)</a:t>
+              </a:r>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>248027</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>150755</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="517770" cy="219163"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDDF939A-2B42-5CC0-0B09-847E893F2BE8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5383590" y="2162911"/>
+              <a:ext cx="517770" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐕</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐟𝐭</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐕</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDDF939A-2B42-5CC0-0B09-847E893F2BE8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5383590" y="2162911"/>
+              <a:ext cx="517770" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1400" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐕_𝐟𝐭 (𝐕)</a:t>
               </a:r>
               <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
             </a:p>
@@ -1944,8 +6233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V25" sqref="V25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6:T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2225,4 +6514,837 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCE044A-DCB7-4128-B546-215112061369}">
+  <dimension ref="A1:AA24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="8.7265625" customWidth="1"/>
+    <col min="4" max="4" width="15.90625" customWidth="1"/>
+    <col min="5" max="5" width="6.36328125" customWidth="1"/>
+    <col min="6" max="29" width="6.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1">
+        <v>6</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="array" ref="J10:K11">G10:H11</f>
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
+        <v>6</v>
+      </c>
+      <c r="M10" s="1">
+        <v>9</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="array" ref="O10:O11">M10:M11</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="1">
+        <v>7</v>
+      </c>
+      <c r="H11" s="1">
+        <v>8</v>
+      </c>
+      <c r="J11" s="3">
+        <v>7</v>
+      </c>
+      <c r="K11" s="3">
+        <v>8</v>
+      </c>
+      <c r="M11" s="1">
+        <v>10</v>
+      </c>
+      <c r="O11" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>11</v>
+      </c>
+      <c r="R14" s="1">
+        <v>16</v>
+      </c>
+      <c r="T14" s="3">
+        <f t="array" ref="T14:U18">MMULT(W14:AA18,Q14:R18)</f>
+        <v>11</v>
+      </c>
+      <c r="U14" s="3">
+        <v>16</v>
+      </c>
+      <c r="W14" s="2">
+        <v>1</v>
+      </c>
+      <c r="X14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>12</v>
+      </c>
+      <c r="R15" s="1">
+        <v>17</v>
+      </c>
+      <c r="T15" s="3">
+        <v>23</v>
+      </c>
+      <c r="U15" s="3">
+        <v>33</v>
+      </c>
+      <c r="W15" s="2">
+        <v>1</v>
+      </c>
+      <c r="X15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>13</v>
+      </c>
+      <c r="R16" s="1">
+        <v>18</v>
+      </c>
+      <c r="T16" s="3">
+        <v>36</v>
+      </c>
+      <c r="U16" s="3">
+        <v>51</v>
+      </c>
+      <c r="W16" s="2">
+        <v>1</v>
+      </c>
+      <c r="X16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>14</v>
+      </c>
+      <c r="R17" s="1">
+        <v>19</v>
+      </c>
+      <c r="T17" s="3">
+        <v>50</v>
+      </c>
+      <c r="U17" s="3">
+        <v>70</v>
+      </c>
+      <c r="W17" s="2">
+        <v>1</v>
+      </c>
+      <c r="X17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>15</v>
+      </c>
+      <c r="R18" s="1">
+        <v>20</v>
+      </c>
+      <c r="T18" s="3">
+        <v>65</v>
+      </c>
+      <c r="U18" s="3">
+        <v>90</v>
+      </c>
+      <c r="W18" s="2">
+        <v>1</v>
+      </c>
+      <c r="X18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="array" ref="G24:H24">MMULT(G21:H21,G6:H7)</f>
+        <v>4</v>
+      </c>
+      <c r="H24" s="3">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED8E861-B43B-4CD8-8156-C88AD7BF9BFB}">
+  <dimension ref="A1:AH27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="8.7265625" customWidth="1"/>
+    <col min="4" max="4" width="15.90625" customWidth="1"/>
+    <col min="5" max="5" width="6.36328125" customWidth="1"/>
+    <col min="6" max="36" width="6.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="29" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <f t="array" ref="Q10:R11">G10:H11</f>
+        <v>1</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>9</v>
+      </c>
+      <c r="V10" s="3">
+        <f t="array" ref="V10:V11">T10:T11</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3">
+        <v>1</v>
+      </c>
+      <c r="T11" s="1">
+        <v>10</v>
+      </c>
+      <c r="V11" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="1">
+        <v>10</v>
+      </c>
+      <c r="K13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="X17" s="1">
+        <v>11</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>16</v>
+      </c>
+      <c r="AA17" s="3">
+        <f t="array" ref="AA17:AB21">MMULT(AD17:AH21,X17:Y21)</f>
+        <v>11</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>16</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="X18" s="1">
+        <v>12</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>17</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>23</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>33</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="X19" s="1">
+        <v>13</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>18</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>36</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>51</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="X20" s="1">
+        <v>14</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>19</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>50</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>70</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="X21" s="1">
+        <v>15</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>20</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>65</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>90</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3" t="e">
+        <f t="array" ref="G27:H27">MMULT(G24:H24,G6:H7)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H27" s="3" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>